--- a/data/national_results/results_metadata.xlsx
+++ b/data/national_results/results_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/nelms_upenn_edu/Documents/Penn/Wharton/NLURI/wharton_gis_repo/data/national_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2160A4C-6A41-4323-AFCA-3D276BA08CAC}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>area_total</t>
   </si>
   <si>
-    <t>pred_ahud</t>
-  </si>
-  <si>
-    <t>obs_ahud</t>
-  </si>
-  <si>
     <t>pop_19</t>
   </si>
   <si>
@@ -89,15 +83,6 @@
     <t>State FIPS Code</t>
   </si>
   <si>
-    <t>BG Area (meters)</t>
-  </si>
-  <si>
-    <t>Predicted Allowable Housing Units Density</t>
-  </si>
-  <si>
-    <t>Observed Allowable Housing Units Density</t>
-  </si>
-  <si>
     <t>ACS 2019 Population</t>
   </si>
   <si>
@@ -156,14 +141,37 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>Block Group Area (meters)</t>
+  </si>
+  <si>
+    <t>Predicted Allowable Housing Units per Acre</t>
+  </si>
+  <si>
+    <t>Observed Allowable Housing Units per Acre</t>
+  </si>
+  <si>
+    <t>pred_ahu</t>
+  </si>
+  <si>
+    <t>obs_ahu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -191,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,224 +519,224 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/national_results/results_metadata.xlsx
+++ b/data/national_results/results_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/nelms_upenn_edu/Documents/Penn/Wharton/NLURI/wharton_gis_repo/data/national_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2160A4C-6A41-4323-AFCA-3D276BA08CAC}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC8AAB09-E025-45FD-9FC4-3B7365DF4175}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
+    <workbookView xWindow="-26040" yWindow="2970" windowWidth="17280" windowHeight="8970" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>GEOID</t>
   </si>
   <si>
-    <t>state_nm</t>
-  </si>
-  <si>
-    <t>state_fips</t>
-  </si>
-  <si>
-    <t>area_total</t>
-  </si>
-  <si>
-    <t>pop_19</t>
-  </si>
-  <si>
-    <t>pop_dens</t>
-  </si>
-  <si>
     <t>hu_dens</t>
   </si>
   <si>
@@ -77,18 +62,6 @@
     <t>Block Group GEOID</t>
   </si>
   <si>
-    <t>State Name</t>
-  </si>
-  <si>
-    <t>State FIPS Code</t>
-  </si>
-  <si>
-    <t>ACS 2019 Population</t>
-  </si>
-  <si>
-    <t>Population per Acre</t>
-  </si>
-  <si>
     <t>ACS 2019 Housing Units</t>
   </si>
   <si>
@@ -143,26 +116,68 @@
     <t>Boolean</t>
   </si>
   <si>
-    <t>Block Group Area (meters)</t>
-  </si>
-  <si>
-    <t>Predicted Allowable Housing Units per Acre</t>
-  </si>
-  <si>
-    <t>Observed Allowable Housing Units per Acre</t>
-  </si>
-  <si>
-    <t>pred_ahu</t>
-  </si>
-  <si>
-    <t>obs_ahu</t>
+    <t>r_index</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>index estimating the maximium allowable housing unit per acre</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Low Density</t>
+  </si>
+  <si>
+    <t>Protected Area</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>modeled prediction based on variables and tested on observations</t>
+  </si>
+  <si>
+    <t>actual allowable housing units based on observed local gov regulations</t>
+  </si>
+  <si>
+    <t>the source of the index based on 5 categories:</t>
+  </si>
+  <si>
+    <t>if there is less than 1 units per 100 acres, the ACS housing units per acre is used</t>
+  </si>
+  <si>
+    <t>if the BG is in a federal, state, or locally protected area, the ACS units is used</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Predictive Model</t>
+  </si>
+  <si>
+    <t>ACS Units per Acre</t>
+  </si>
+  <si>
+    <t>if there isn't any predictions/observations/limits, ACS units is used</t>
+  </si>
+  <si>
+    <t>ALAND_ac</t>
+  </si>
+  <si>
+    <t>Census provided land area but in acres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +193,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,9 +229,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,6 +252,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,31 +555,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3445F63-CD2D-40BB-8323-B8D860BF2024}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -548,195 +587,188 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
+      <c r="A6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
+      <c r="A7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/national_results/results_metadata.xlsx
+++ b/data/national_results/results_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/nelms_upenn_edu/Documents/Penn/Wharton/NLURI/wharton_gis_repo/data/national_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC8AAB09-E025-45FD-9FC4-3B7365DF4175}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B15F8492-68AA-47EA-8C38-91855C25812A}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="2970" windowWidth="17280" windowHeight="8970" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
+    <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/national_results/results_metadata.xlsx
+++ b/data/national_results/results_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/nelms_upenn_edu/Documents/Penn/Wharton/NLURI/wharton_gis_repo/data/national_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B15F8492-68AA-47EA-8C38-91855C25812A}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CE8E27-00C8-4941-87D8-04F69C02B380}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
+    <workbookView xWindow="-23955" yWindow="900" windowWidth="17775" windowHeight="10650" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>GEOID</t>
   </si>
@@ -44,18 +44,6 @@
     <t>hu_dens</t>
   </si>
   <si>
-    <t>low_dens</t>
-  </si>
-  <si>
-    <t>predicted</t>
-  </si>
-  <si>
-    <t>observed</t>
-  </si>
-  <si>
-    <t>PAD</t>
-  </si>
-  <si>
     <t>hu_19</t>
   </si>
   <si>
@@ -65,21 +53,6 @@
     <t>ACS 2019 Housing Units</t>
   </si>
   <si>
-    <t>Housing Units per Acre</t>
-  </si>
-  <si>
-    <t>BG is Low Density (1hu per 100 acres)</t>
-  </si>
-  <si>
-    <t>Prediction for ahud</t>
-  </si>
-  <si>
-    <t>Observation for ahud</t>
-  </si>
-  <si>
-    <t>Protected Area (Undevelopable Land)</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -92,15 +65,6 @@
     <t>Census/ACS</t>
   </si>
   <si>
-    <t>NLURI</t>
-  </si>
-  <si>
-    <t>Aggregated from Govs</t>
-  </si>
-  <si>
-    <t>Protected Areas Database</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
@@ -113,18 +77,12 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>r_index</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>index estimating the maximium allowable housing unit per acre</t>
-  </si>
-  <si>
     <t>Observed</t>
   </si>
   <si>
@@ -134,9 +92,6 @@
     <t>Protected Area</t>
   </si>
   <si>
-    <t>Census</t>
-  </si>
-  <si>
     <t>Predicted</t>
   </si>
   <si>
@@ -170,7 +125,22 @@
     <t>ALAND_ac</t>
   </si>
   <si>
-    <t>Census provided land area but in acres</t>
+    <t>state name</t>
+  </si>
+  <si>
+    <t>state_nm</t>
+  </si>
+  <si>
+    <t>Census provided land area</t>
+  </si>
+  <si>
+    <t>Housing Units Density (per Acre)</t>
+  </si>
+  <si>
+    <t>restriceness index: the maximium allowable housing unit per acre</t>
+  </si>
+  <si>
+    <t>NO_DATA</t>
   </si>
 </sst>
 </file>
@@ -203,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,11 +208,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3445F63-CD2D-40BB-8323-B8D860BF2024}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,16 +546,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,188 +563,140 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/national_results/results_metadata.xlsx
+++ b/data/national_results/results_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/nelms_upenn_edu/Documents/Penn/Wharton/NLURI/wharton_gis_repo/data/national_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CE8E27-00C8-4941-87D8-04F69C02B380}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{5F763099-06C5-4F75-B7D7-421A877096D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1A2114-A89F-4140-8BF6-58A82090964A}"/>
   <bookViews>
-    <workbookView xWindow="-23955" yWindow="900" windowWidth="17775" windowHeight="10650" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52A7EA2F-6563-4AD1-AD46-9B7589BAEBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>GEOID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>ACS Units per Acre</t>
   </si>
   <si>
-    <t>if there isn't any predictions/observations/limits, ACS units is used</t>
-  </si>
-  <si>
     <t>ALAND_ac</t>
   </si>
   <si>
@@ -131,16 +128,28 @@
     <t>state_nm</t>
   </si>
   <si>
-    <t>Census provided land area</t>
-  </si>
-  <si>
     <t>Housing Units Density (per Acre)</t>
   </si>
   <si>
     <t>restriceness index: the maximium allowable housing unit per acre</t>
   </si>
   <si>
-    <t>NO_DATA</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>there is no data for states without any observations</t>
+  </si>
+  <si>
+    <t>county_nm</t>
+  </si>
+  <si>
+    <t>county name</t>
+  </si>
+  <si>
+    <t>Census provided land area, in acres</t>
+  </si>
+  <si>
+    <t>"NA"</t>
   </si>
 </sst>
 </file>
@@ -173,18 +182,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -208,11 +211,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3445F63-CD2D-40BB-8323-B8D860BF2024}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,130 +575,150 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>34</v>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
